--- a/05-SP-IR_and_Constraints/SP-InformationRequirements.xlsx
+++ b/05-SP-IR_and_Constraints/SP-InformationRequirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\04-SP-Information_Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology\05-SP-IR_and_Constraints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="205">
   <si>
     <t>Cardinality</t>
   </si>
@@ -30,12 +30,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> [Name of the National Criterion]</t>
-  </si>
-  <si>
-    <t>[Description of the National Criterion ]</t>
-  </si>
-  <si>
     <t>0..n</t>
   </si>
   <si>
@@ -591,12 +585,6 @@
     <t>EU_RPAM_Mandate</t>
   </si>
   <si>
-    <t xml:space="preserve"> [Name of the NatiGroup</t>
-  </si>
-  <si>
-    <t>[DescriptiGroup</t>
-  </si>
-  <si>
     <t>{CRITERION</t>
   </si>
   <si>
@@ -643,6 +631,12 @@
   </si>
   <si>
     <t>Compulsory use of the RPaM Identifier Policy</t>
+  </si>
+  <si>
+    <t>[SubCriterion name]</t>
+  </si>
+  <si>
+    <t>[Subcriterion Description]</t>
   </si>
 </sst>
 </file>
@@ -1361,49 +1355,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hipervínculo" xfId="42"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1704,21 +1698,21 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1730,36 +1724,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="3.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.73046875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.73046875" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.73046875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="16" width="3.73046875" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.86328125" style="2" customWidth="1"/>
     <col min="19" max="19" width="65" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="45.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="17" customWidth="1"/>
-    <col min="27" max="27" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.42578125" style="2"/>
+    <col min="20" max="20" width="28.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.59765625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="45.86328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.3984375" style="17" customWidth="1"/>
+    <col min="27" max="27" width="36.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21">
         <v>1</v>
       </c>
@@ -1838,7 +1832,7 @@
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="23"/>
       <c r="B2" s="25" t="s">
         <v>1</v>
@@ -1868,45 +1862,45 @@
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1930,10 +1924,10 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="T3" s="30"/>
       <c r="U3" s="42"/>
@@ -1943,12 +1937,12 @@
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="28"/>
       <c r="AA3" s="28"/>
     </row>
-    <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1956,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1973,25 +1967,25 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="6"/>
       <c r="V4" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
       <c r="Y4" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1999,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2020,23 +2014,23 @@
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2057,24 +2051,24 @@
       <c r="T6" s="14"/>
       <c r="U6" s="5"/>
       <c r="V6" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2101,7 +2095,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14">
@@ -2119,12 +2113,12 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2151,7 +2145,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14">
@@ -2169,11 +2163,11 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2200,10 +2194,10 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2231,12 +2225,12 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="49">
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2260,10 +2254,10 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T11" s="30"/>
       <c r="U11" s="42"/>
@@ -2276,7 +2270,7 @@
       <c r="Z11" s="28"/>
       <c r="AA11" s="28"/>
     </row>
-    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2284,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2301,15 +2295,15 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6"/>
       <c r="V12" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
@@ -2317,13 +2311,13 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="44"/>
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2344,7 +2338,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W13" s="41"/>
       <c r="X13" s="41"/>
@@ -2354,11 +2348,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2379,24 +2373,24 @@
       <c r="T14" s="14"/>
       <c r="U14" s="5"/>
       <c r="V14" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2423,7 +2417,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="14">
@@ -2441,12 +2435,12 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2473,7 +2467,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14">
@@ -2491,11 +2485,11 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2522,10 +2516,10 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2553,12 +2547,12 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="23">
         <v>3</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2582,10 +2576,10 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T19" s="30"/>
       <c r="U19" s="42"/>
@@ -2598,7 +2592,7 @@
       <c r="Z19" s="28"/>
       <c r="AA19" s="28"/>
     </row>
-    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2606,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2623,15 +2617,15 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="6"/>
       <c r="V20" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
@@ -2639,7 +2633,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -2647,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2668,7 +2662,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="10"/>
       <c r="V21" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W21" s="41"/>
       <c r="X21" s="41"/>
@@ -2678,11 +2672,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2703,24 +2697,24 @@
       <c r="T22" s="14"/>
       <c r="U22" s="5"/>
       <c r="V22" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2743,18 +2737,18 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2780,7 +2774,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14">
@@ -2798,13 +2792,13 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="48"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2830,7 +2824,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="14">
@@ -2848,12 +2842,12 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2879,12 +2873,12 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2907,18 +2901,18 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="47" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2944,7 +2938,7 @@
         <v>The age of the person expressed as the positive integer number of years.</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="14">
@@ -2962,13 +2956,13 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
@@ -2994,13 +2988,13 @@
         <v>The minimum age required expressed in years.</v>
       </c>
       <c r="T29" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U29" s="32">
         <v>16</v>
       </c>
       <c r="V29" s="33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W29" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$7</f>
@@ -3014,12 +3008,12 @@
       <c r="Z29" s="31"/>
       <c r="AA29" s="31"/>
     </row>
-    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3045,11 +3039,11 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3076,10 +3070,10 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3107,12 +3101,12 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="23">
         <v>4</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -3136,10 +3130,10 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T33" s="30"/>
       <c r="U33" s="42"/>
@@ -3152,7 +3146,7 @@
       <c r="Z33" s="28"/>
       <c r="AA33" s="28"/>
     </row>
-    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3177,15 +3171,15 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="T34" s="8"/>
       <c r="U34" s="6"/>
       <c r="V34" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
@@ -3193,7 +3187,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="7"/>
     </row>
-    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -3201,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -3222,7 +3216,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="10"/>
       <c r="V35" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W35" s="41"/>
       <c r="X35" s="41"/>
@@ -3234,11 +3228,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -3256,29 +3250,29 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="T36" s="14"/>
       <c r="U36" s="5"/>
       <c r="V36" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -3293,7 +3287,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R37" s="5" t="str">
         <f>'IR-DED'!$C$16</f>
@@ -3304,7 +3298,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T37" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U37" s="15"/>
       <c r="V37" s="14">
@@ -3322,12 +3316,12 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3354,7 +3348,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14">
@@ -3371,14 +3365,14 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3405,11 +3399,11 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3426,32 +3420,32 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="5"/>
       <c r="V40" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3478,10 +3472,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V41" s="17">
         <v>1</v>
@@ -3497,15 +3491,15 @@
       <c r="Y41" s="20"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3532,13 +3526,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W42" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -3552,12 +3546,12 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -3584,10 +3578,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T43" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U43" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V43" s="33">
         <v>1</v>
@@ -3604,12 +3598,12 @@
       <c r="Z43" s="31"/>
       <c r="AA43" s="31"/>
     </row>
-    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
@@ -3636,13 +3630,13 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T44" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U44" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V44" s="33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W44" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$17</f>
@@ -3656,11 +3650,11 @@
       <c r="Z44" s="31"/>
       <c r="AA44" s="31"/>
     </row>
-    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3687,10 +3681,10 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3718,12 +3712,12 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
     </row>
-    <row r="47" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="23">
         <v>5</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -3747,10 +3741,10 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T47" s="30"/>
       <c r="U47" s="42"/>
@@ -3763,7 +3757,7 @@
       <c r="Z47" s="28"/>
       <c r="AA47" s="28"/>
     </row>
-    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -3771,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3788,15 +3782,15 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="6"/>
       <c r="V48" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W48" s="40"/>
       <c r="X48" s="40"/>
@@ -3804,7 +3798,7 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="7"/>
     </row>
-    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -3812,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3833,7 +3827,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W49" s="41"/>
       <c r="X49" s="41"/>
@@ -3843,11 +3837,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3868,7 +3862,7 @@
       <c r="T50" s="14"/>
       <c r="U50" s="5"/>
       <c r="V50" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -3878,12 +3872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -3910,7 +3904,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T51" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U51" s="15"/>
       <c r="V51" s="14">
@@ -3928,12 +3922,12 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -3960,7 +3954,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T52" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="14">
@@ -3977,14 +3971,14 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4011,11 +4005,11 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -4032,32 +4026,32 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="5"/>
       <c r="V54" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -4084,10 +4078,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U55" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V55" s="17">
         <v>1</v>
@@ -4103,15 +4097,15 @@
       <c r="Y55" s="20"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -4138,13 +4132,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="U56" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V56" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W56" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -4158,12 +4152,12 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
@@ -4190,10 +4184,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T57" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="U57" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V57" s="33">
         <v>1</v>
@@ -4208,15 +4202,15 @@
       </c>
       <c r="Y57" s="34"/>
       <c r="Z57" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AA57" s="31"/>
     </row>
-    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -4243,10 +4237,10 @@
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4274,34 +4268,34 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="21:21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="21:21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="21:21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="21:21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="21:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="21:21" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U69" s="2"/>
     </row>
   </sheetData>
@@ -4324,438 +4318,438 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="F4" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
       <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>95</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>146</v>
       </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>148</v>
-      </c>
       <c r="H19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
         <v>173</v>
       </c>
-      <c r="C20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" t="s">
-        <v>175</v>
-      </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4774,367 +4768,367 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
         <v>124</v>
       </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>126</v>
-      </c>
       <c r="G10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
         <v>131</v>
       </c>
-      <c r="D14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" t="s">
-        <v>133</v>
-      </c>
       <c r="G14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
         <v>141</v>
       </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="s">
         <v>163</v>
       </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s">
         <v>164</v>
       </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>16</v>
       </c>
